--- a/data/quiz_data.xlsx
+++ b/data/quiz_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1370">
   <si>
     <t>ID</t>
   </si>
@@ -4912,12 +4912,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4940,7 +4952,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4969,6 +4981,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5854,7 +5875,9 @@
       <c r="Q11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="R11" s="7"/>
+      <c r="R11" s="10" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
@@ -5964,7 +5987,9 @@
       <c r="Q13" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
@@ -6074,7 +6099,9 @@
       <c r="Q15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="11" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
@@ -6128,7 +6155,9 @@
       <c r="Q16" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="12" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
@@ -6187,13 +6216,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -6742,7 +6771,9 @@
       <c r="Q27" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="11" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
@@ -6852,7 +6883,9 @@
       <c r="Q29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="11" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8">
@@ -6962,7 +6995,9 @@
       <c r="Q31" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="11" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
@@ -7016,7 +7051,9 @@
       <c r="Q32" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="12" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8">
@@ -7630,7 +7667,9 @@
       <c r="Q43" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="R43" s="9"/>
+      <c r="R43" s="11" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3">
@@ -7740,7 +7779,9 @@
       <c r="Q45" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="11" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3">
@@ -7850,7 +7891,9 @@
       <c r="Q47" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="R47" s="9"/>
+      <c r="R47" s="11" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8">
@@ -7904,7 +7947,9 @@
       <c r="Q48" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="12" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3">
@@ -7963,780 +8008,780 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
     </row>
     <row r="75">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
     </row>
     <row r="77">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
     </row>
     <row r="86">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
     </row>
     <row r="95">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
     </row>
     <row r="96">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
     </row>
     <row r="97">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
     </row>
     <row r="98">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
     </row>
     <row r="99">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
     </row>
     <row r="103">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
     </row>
     <row r="106">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
     </row>
     <row r="107">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
     </row>
     <row r="118">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
     </row>
     <row r="119">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
     </row>
     <row r="120">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
     </row>
     <row r="121">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
     </row>
     <row r="122">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
     </row>
     <row r="123">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
     </row>
     <row r="125">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
     </row>
     <row r="126">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
     </row>
     <row r="127">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
     </row>
     <row r="128">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
     </row>
     <row r="129">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
     </row>
     <row r="130">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
     </row>
     <row r="131">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
     </row>
     <row r="133">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
     </row>
     <row r="134">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
     </row>
     <row r="135">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
     </row>
     <row r="137">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
     </row>
     <row r="138">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
     </row>
     <row r="139">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
     </row>
     <row r="140">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
     </row>
     <row r="141">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
     </row>
     <row r="142">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
     </row>
     <row r="143">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
     </row>
     <row r="144">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
     </row>
     <row r="145">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
     </row>
     <row r="146">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9770,13 +9815,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -11642,877 +11687,877 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
     </row>
     <row r="120">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
     </row>
     <row r="122">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
     </row>
     <row r="138">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
     </row>
     <row r="142">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
     </row>
     <row r="144">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
     </row>
     <row r="145">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
     </row>
     <row r="146">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13494,16 +13539,16 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14">
+      <c r="A18" s="17">
         <v>17.0</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="20" t="s">
         <v>986</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -14382,16 +14427,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15">
+      <c r="A34" s="18">
         <v>33.0</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="20" t="s">
         <v>1178</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -15270,780 +15315,780 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
     </row>
     <row r="75">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
     </row>
     <row r="77">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
     </row>
     <row r="86">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
     </row>
     <row r="95">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
     </row>
     <row r="96">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
     </row>
     <row r="97">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
     </row>
     <row r="98">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
     </row>
     <row r="99">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
     </row>
     <row r="103">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
     </row>
     <row r="106">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
     </row>
     <row r="107">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
     </row>
     <row r="118">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
     </row>
     <row r="119">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
     </row>
     <row r="120">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
     </row>
     <row r="121">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
     </row>
     <row r="122">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
     </row>
     <row r="123">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
     </row>
     <row r="125">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
     </row>
     <row r="126">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
     </row>
     <row r="127">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
     </row>
     <row r="128">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
     </row>
     <row r="129">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
     </row>
     <row r="130">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
     </row>
     <row r="131">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
     </row>
     <row r="133">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
     </row>
     <row r="134">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
     </row>
     <row r="135">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
     </row>
     <row r="137">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
     </row>
     <row r="138">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
     </row>
     <row r="139">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
     </row>
     <row r="140">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
     </row>
     <row r="141">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
     </row>
     <row r="142">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
     </row>
     <row r="143">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
     </row>
     <row r="144">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
     </row>
     <row r="145">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
     </row>
     <row r="146">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
